--- a/bin/Debug/Otazky.xlsx
+++ b/bin/Debug/Otazky.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E555EC-4592-492B-8F78-8524A04308E6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Otazka 1</t>
   </si>
@@ -124,12 +125,132 @@
   </si>
   <si>
     <t>odpoved7.4</t>
+  </si>
+  <si>
+    <t>Otazka 8</t>
+  </si>
+  <si>
+    <t>Otazka 9</t>
+  </si>
+  <si>
+    <t>Otazka 10</t>
+  </si>
+  <si>
+    <t>Otazka 11</t>
+  </si>
+  <si>
+    <t>Otazka 12</t>
+  </si>
+  <si>
+    <t>Otazka 13</t>
+  </si>
+  <si>
+    <t>Otazka 14</t>
+  </si>
+  <si>
+    <t>Otazka 15</t>
+  </si>
+  <si>
+    <t>odpoved8.1</t>
+  </si>
+  <si>
+    <t>odpoved9.1</t>
+  </si>
+  <si>
+    <t>odpoved10.1</t>
+  </si>
+  <si>
+    <t>odpoved11.1</t>
+  </si>
+  <si>
+    <t>odpoved12.1</t>
+  </si>
+  <si>
+    <t>odpoved13.1</t>
+  </si>
+  <si>
+    <t>odpoved14.1</t>
+  </si>
+  <si>
+    <t>odpoved15.1</t>
+  </si>
+  <si>
+    <t>odpoved8.2</t>
+  </si>
+  <si>
+    <t>odpoved8.3</t>
+  </si>
+  <si>
+    <t>odpoved8.4</t>
+  </si>
+  <si>
+    <t>odpoved9.2</t>
+  </si>
+  <si>
+    <t>odpoved9.3</t>
+  </si>
+  <si>
+    <t>odpoved9.4</t>
+  </si>
+  <si>
+    <t>odpoved10.2</t>
+  </si>
+  <si>
+    <t>odpoved10.3</t>
+  </si>
+  <si>
+    <t>odpoved10.4</t>
+  </si>
+  <si>
+    <t>odpoved11.2</t>
+  </si>
+  <si>
+    <t>odpoved11.3</t>
+  </si>
+  <si>
+    <t>odpoved11.4</t>
+  </si>
+  <si>
+    <t>odpoved12.2</t>
+  </si>
+  <si>
+    <t>odpoved12.3</t>
+  </si>
+  <si>
+    <t>odpoved12.4</t>
+  </si>
+  <si>
+    <t>odpoved13.2</t>
+  </si>
+  <si>
+    <t>odpoved13.3</t>
+  </si>
+  <si>
+    <t>odpoved13.4</t>
+  </si>
+  <si>
+    <t>odpoved14.2</t>
+  </si>
+  <si>
+    <t>odpoved14.3</t>
+  </si>
+  <si>
+    <t>odpoved14.4</t>
+  </si>
+  <si>
+    <t>odpoved15.2</t>
+  </si>
+  <si>
+    <t>odpoved15.3</t>
+  </si>
+  <si>
+    <t>odpoved15.4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -440,11 +561,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,6 +696,142 @@
         <v>34</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
